--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Unc5a</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H2">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I2">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J2">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.774914570038666</v>
+        <v>0.837459</v>
       </c>
       <c r="N2">
-        <v>0.774914570038666</v>
+        <v>2.512377</v>
       </c>
       <c r="O2">
-        <v>0.1908135023881685</v>
+        <v>0.1861007731134217</v>
       </c>
       <c r="P2">
-        <v>0.1908135023881685</v>
+        <v>0.1861007731134217</v>
       </c>
       <c r="Q2">
-        <v>1.424794434507927</v>
+        <v>1.667244363183</v>
       </c>
       <c r="R2">
-        <v>1.424794434507927</v>
+        <v>15.005199268647</v>
       </c>
       <c r="S2">
-        <v>0.02182524160661095</v>
+        <v>0.02089624315882635</v>
       </c>
       <c r="T2">
-        <v>0.02182524160661095</v>
+        <v>0.02089624315882635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H3">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I3">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J3">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.77109051913053</v>
+        <v>1.864510666666667</v>
       </c>
       <c r="N3">
-        <v>1.77109051913053</v>
+        <v>5.593532</v>
       </c>
       <c r="O3">
-        <v>0.4361099894984724</v>
+        <v>0.4143329721752205</v>
       </c>
       <c r="P3">
-        <v>0.4361099894984724</v>
+        <v>0.4143329721752205</v>
       </c>
       <c r="Q3">
-        <v>3.25641046411222</v>
+        <v>3.711936822094667</v>
       </c>
       <c r="R3">
-        <v>3.25641046411222</v>
+        <v>33.407431398852</v>
       </c>
       <c r="S3">
-        <v>0.04988224506512128</v>
+        <v>0.04652319488224748</v>
       </c>
       <c r="T3">
-        <v>0.04988224506512128</v>
+        <v>0.04652319488224748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H4">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I4">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J4">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.432188078039636</v>
+        <v>0.4771786666666666</v>
       </c>
       <c r="N4">
-        <v>0.432188078039636</v>
+        <v>1.431536</v>
       </c>
       <c r="O4">
-        <v>0.1064211773138285</v>
+        <v>0.1060390046317472</v>
       </c>
       <c r="P4">
-        <v>0.1064211773138285</v>
+        <v>0.1060390046317472</v>
       </c>
       <c r="Q4">
-        <v>0.7946413605577518</v>
+        <v>0.9499849452106667</v>
       </c>
       <c r="R4">
-        <v>0.7946413605577518</v>
+        <v>8.549864506896</v>
       </c>
       <c r="S4">
-        <v>0.01217245047056119</v>
+        <v>0.01190654282642041</v>
       </c>
       <c r="T4">
-        <v>0.01217245047056119</v>
+        <v>0.01190654282642041</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H5">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I5">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J5">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.08291655689377</v>
+        <v>1.320881333333333</v>
       </c>
       <c r="N5">
-        <v>1.08291655689377</v>
+        <v>3.962644</v>
       </c>
       <c r="O5">
-        <v>0.2666553307995306</v>
+        <v>0.2935272500796106</v>
       </c>
       <c r="P5">
-        <v>0.2666553307995306</v>
+        <v>0.2935272500796106</v>
       </c>
       <c r="Q5">
-        <v>1.991101397437581</v>
+        <v>2.629659431009334</v>
       </c>
       <c r="R5">
-        <v>1.991101397437581</v>
+        <v>23.666934879084</v>
       </c>
       <c r="S5">
-        <v>0.03050002723890773</v>
+        <v>0.0329585777038495</v>
       </c>
       <c r="T5">
-        <v>0.03050002723890773</v>
+        <v>0.0329585777038495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H6">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I6">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J6">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.774914570038666</v>
+        <v>0.837459</v>
       </c>
       <c r="N6">
-        <v>0.774914570038666</v>
+        <v>2.512377</v>
       </c>
       <c r="O6">
-        <v>0.1908135023881685</v>
+        <v>0.1861007731134217</v>
       </c>
       <c r="P6">
-        <v>0.1908135023881685</v>
+        <v>0.1861007731134217</v>
       </c>
       <c r="Q6">
-        <v>8.330720001136296</v>
+        <v>9.57019113288</v>
       </c>
       <c r="R6">
-        <v>8.330720001136296</v>
+        <v>86.13172019592</v>
       </c>
       <c r="S6">
-        <v>0.1276113749311633</v>
+        <v>0.1199470487981215</v>
       </c>
       <c r="T6">
-        <v>0.1276113749311633</v>
+        <v>0.1199470487981215</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H7">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I7">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J7">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.77109051913053</v>
+        <v>1.864510666666667</v>
       </c>
       <c r="N7">
-        <v>1.77109051913053</v>
+        <v>5.593532</v>
       </c>
       <c r="O7">
-        <v>0.4361099894984724</v>
+        <v>0.4143329721752205</v>
       </c>
       <c r="P7">
-        <v>0.4361099894984724</v>
+        <v>0.4143329721752205</v>
       </c>
       <c r="Q7">
-        <v>19.04011071931112</v>
+        <v>21.30698153496889</v>
       </c>
       <c r="R7">
-        <v>19.04011071931112</v>
+        <v>191.76283381472</v>
       </c>
       <c r="S7">
-        <v>0.2916596293479389</v>
+        <v>0.2670489563301424</v>
       </c>
       <c r="T7">
-        <v>0.2916596293479389</v>
+        <v>0.2670489563301424</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H8">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I8">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J8">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.432188078039636</v>
+        <v>0.4771786666666666</v>
       </c>
       <c r="N8">
-        <v>0.432188078039636</v>
+        <v>1.431536</v>
       </c>
       <c r="O8">
-        <v>0.1064211773138285</v>
+        <v>0.1060390046317472</v>
       </c>
       <c r="P8">
-        <v>0.1064211773138285</v>
+        <v>0.1060390046317472</v>
       </c>
       <c r="Q8">
-        <v>4.646238443803939</v>
+        <v>5.453032380728889</v>
       </c>
       <c r="R8">
-        <v>4.646238443803939</v>
+        <v>49.07729142656</v>
       </c>
       <c r="S8">
-        <v>0.07117186461566072</v>
+        <v>0.06834504473184862</v>
       </c>
       <c r="T8">
-        <v>0.07117186461566072</v>
+        <v>0.06834504473184862</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H9">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I9">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J9">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.08291655689377</v>
+        <v>1.320881333333333</v>
       </c>
       <c r="N9">
-        <v>1.08291655689377</v>
+        <v>3.962644</v>
       </c>
       <c r="O9">
-        <v>0.2666553307995306</v>
+        <v>0.2935272500796106</v>
       </c>
       <c r="P9">
-        <v>0.2666553307995306</v>
+        <v>0.2935272500796106</v>
       </c>
       <c r="Q9">
-        <v>11.64189572487511</v>
+        <v>15.09457397180445</v>
       </c>
       <c r="R9">
-        <v>11.64189572487511</v>
+        <v>135.85116574624</v>
       </c>
       <c r="S9">
-        <v>0.178332523485834</v>
+        <v>0.189186357476439</v>
       </c>
       <c r="T9">
-        <v>0.178332523485834</v>
+        <v>0.189186357476439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.48575713161443</v>
+        <v>0.2266433333333333</v>
       </c>
       <c r="H10">
-        <v>3.48575713161443</v>
+        <v>0.67993</v>
       </c>
       <c r="I10">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="J10">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.774914570038666</v>
+        <v>0.837459</v>
       </c>
       <c r="N10">
-        <v>0.774914570038666</v>
+        <v>2.512377</v>
       </c>
       <c r="O10">
-        <v>0.1908135023881685</v>
+        <v>0.1861007731134217</v>
       </c>
       <c r="P10">
-        <v>0.1908135023881685</v>
+        <v>0.1861007731134217</v>
       </c>
       <c r="Q10">
-        <v>2.70116398890421</v>
+        <v>0.18980449929</v>
       </c>
       <c r="R10">
-        <v>2.70116398890421</v>
+        <v>1.70824049361</v>
       </c>
       <c r="S10">
-        <v>0.04137688585039415</v>
+        <v>0.002378896013917898</v>
       </c>
       <c r="T10">
-        <v>0.04137688585039415</v>
+        <v>0.002378896013917898</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.48575713161443</v>
+        <v>0.2266433333333333</v>
       </c>
       <c r="H11">
-        <v>3.48575713161443</v>
+        <v>0.67993</v>
       </c>
       <c r="I11">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="J11">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.77109051913053</v>
+        <v>1.864510666666667</v>
       </c>
       <c r="N11">
-        <v>1.77109051913053</v>
+        <v>5.593532</v>
       </c>
       <c r="O11">
-        <v>0.4361099894984724</v>
+        <v>0.4143329721752205</v>
       </c>
       <c r="P11">
-        <v>0.4361099894984724</v>
+        <v>0.4143329721752205</v>
       </c>
       <c r="Q11">
-        <v>6.173591407793948</v>
+        <v>0.4225789125288889</v>
       </c>
       <c r="R11">
-        <v>6.173591407793948</v>
+        <v>3.80321021276</v>
       </c>
       <c r="S11">
-        <v>0.09456811508541216</v>
+        <v>0.005296351215809653</v>
       </c>
       <c r="T11">
-        <v>0.09456811508541216</v>
+        <v>0.005296351215809653</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.48575713161443</v>
+        <v>0.2266433333333333</v>
       </c>
       <c r="H12">
-        <v>3.48575713161443</v>
+        <v>0.67993</v>
       </c>
       <c r="I12">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="J12">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.432188078039636</v>
+        <v>0.4771786666666666</v>
       </c>
       <c r="N12">
-        <v>0.432188078039636</v>
+        <v>1.431536</v>
       </c>
       <c r="O12">
-        <v>0.1064211773138285</v>
+        <v>0.1060390046317472</v>
       </c>
       <c r="P12">
-        <v>0.1064211773138285</v>
+        <v>0.1060390046317472</v>
       </c>
       <c r="Q12">
-        <v>1.506502675225395</v>
+        <v>0.1081493636088889</v>
       </c>
       <c r="R12">
-        <v>1.506502675225395</v>
+        <v>0.97334427248</v>
       </c>
       <c r="S12">
-        <v>0.02307686222760654</v>
+        <v>0.001355479406227637</v>
       </c>
       <c r="T12">
-        <v>0.02307686222760654</v>
+        <v>0.001355479406227637</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2266433333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.67993</v>
+      </c>
+      <c r="I13">
+        <v>0.01278283789002879</v>
+      </c>
+      <c r="J13">
+        <v>0.01278283789002879</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.320881333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.962644</v>
+      </c>
+      <c r="O13">
+        <v>0.2935272500796106</v>
+      </c>
+      <c r="P13">
+        <v>0.2935272500796106</v>
+      </c>
+      <c r="Q13">
+        <v>0.2993689483244444</v>
+      </c>
+      <c r="R13">
+        <v>2.69432053492</v>
+      </c>
+      <c r="S13">
+        <v>0.003752111254073603</v>
+      </c>
+      <c r="T13">
+        <v>0.003752111254073603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H14">
+        <v>12.255448</v>
+      </c>
+      <c r="I14">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J14">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.837459</v>
+      </c>
+      <c r="N14">
+        <v>2.512377</v>
+      </c>
+      <c r="O14">
+        <v>0.1861007731134217</v>
+      </c>
+      <c r="P14">
+        <v>0.1861007731134217</v>
+      </c>
+      <c r="Q14">
+        <v>3.421145075544</v>
+      </c>
+      <c r="R14">
+        <v>30.790305679896</v>
+      </c>
+      <c r="S14">
+        <v>0.04287858514255596</v>
+      </c>
+      <c r="T14">
+        <v>0.04287858514255596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H15">
+        <v>12.255448</v>
+      </c>
+      <c r="I15">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J15">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.864510666666667</v>
+      </c>
+      <c r="N15">
+        <v>5.593532</v>
+      </c>
+      <c r="O15">
+        <v>0.4143329721752205</v>
+      </c>
+      <c r="P15">
+        <v>0.4143329721752205</v>
+      </c>
+      <c r="Q15">
+        <v>7.616804506926221</v>
+      </c>
+      <c r="R15">
+        <v>68.55124056233599</v>
+      </c>
+      <c r="S15">
+        <v>0.09546446974702097</v>
+      </c>
+      <c r="T15">
+        <v>0.09546446974702098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.48575713161443</v>
-      </c>
-      <c r="H13">
-        <v>3.48575713161443</v>
-      </c>
-      <c r="I13">
-        <v>0.2168446432382017</v>
-      </c>
-      <c r="J13">
-        <v>0.2168446432382017</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.08291655689377</v>
-      </c>
-      <c r="N13">
-        <v>1.08291655689377</v>
-      </c>
-      <c r="O13">
-        <v>0.2666553307995306</v>
-      </c>
-      <c r="P13">
-        <v>0.2666553307995306</v>
-      </c>
-      <c r="Q13">
-        <v>3.774784111135802</v>
-      </c>
-      <c r="R13">
-        <v>3.774784111135802</v>
-      </c>
-      <c r="S13">
-        <v>0.05782278007478889</v>
-      </c>
-      <c r="T13">
-        <v>0.05782278007478889</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H16">
+        <v>12.255448</v>
+      </c>
+      <c r="I16">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J16">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4771786666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.431536</v>
+      </c>
+      <c r="O16">
+        <v>0.1060390046317472</v>
+      </c>
+      <c r="P16">
+        <v>0.1060390046317472</v>
+      </c>
+      <c r="Q16">
+        <v>1.949346112014222</v>
+      </c>
+      <c r="R16">
+        <v>17.544115008128</v>
+      </c>
+      <c r="S16">
+        <v>0.02443193766725057</v>
+      </c>
+      <c r="T16">
+        <v>0.02443193766725057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H17">
+        <v>12.255448</v>
+      </c>
+      <c r="I17">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J17">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.320881333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.962644</v>
+      </c>
+      <c r="O17">
+        <v>0.2935272500796106</v>
+      </c>
+      <c r="P17">
+        <v>0.2935272500796106</v>
+      </c>
+      <c r="Q17">
+        <v>5.395997498279111</v>
+      </c>
+      <c r="R17">
+        <v>48.563977484512</v>
+      </c>
+      <c r="S17">
+        <v>0.06763020364524851</v>
+      </c>
+      <c r="T17">
+        <v>0.06763020364524852</v>
       </c>
     </row>
   </sheetData>
